--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5475"/>
+  <dimension ref="A1:C5476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92728,6 +92728,23 @@
         </is>
       </c>
     </row>
+    <row r="5476">
+      <c r="A5476" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B5476" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C5476" t="inlineStr">
+        <is>
+          <t>1.6500946012006241</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5476"/>
+  <dimension ref="A1:C5477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92745,6 +92745,23 @@
         </is>
       </c>
     </row>
+    <row r="5477">
+      <c r="A5477" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B5477" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C5477" t="inlineStr">
+        <is>
+          <t>1.7657642186849865</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5477"/>
+  <dimension ref="A1:C5478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92762,6 +92762,23 @@
         </is>
       </c>
     </row>
+    <row r="5478">
+      <c r="A5478" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B5478" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C5478" t="inlineStr">
+        <is>
+          <t>1.346525611297714</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5478"/>
+  <dimension ref="A1:C5479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92779,6 +92779,23 @@
         </is>
       </c>
     </row>
+    <row r="5479">
+      <c r="A5479" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B5479" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C5479" t="inlineStr">
+        <is>
+          <t>4.664081444741326</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5479"/>
+  <dimension ref="A1:C5480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92796,6 +92796,23 @@
         </is>
       </c>
     </row>
+    <row r="5480">
+      <c r="A5480" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B5480" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C5480" t="inlineStr">
+        <is>
+          <t>2.2000869582353317</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5480"/>
+  <dimension ref="A1:C5481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92813,6 +92813,23 @@
         </is>
       </c>
     </row>
+    <row r="5481">
+      <c r="A5481" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B5481" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C5481" t="inlineStr">
+        <is>
+          <t>1.8142085391871687</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5502"/>
+  <dimension ref="A1:B5503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55041,6 +55041,14 @@
       </c>
       <c r="B5502" t="inlineStr"/>
     </row>
+    <row r="5503">
+      <c r="A5503" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B5503" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5503"/>
+  <dimension ref="A1:B5504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55049,6 +55049,14 @@
       </c>
       <c r="B5503" t="inlineStr"/>
     </row>
+    <row r="5504">
+      <c r="A5504" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B5504" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5504"/>
+  <dimension ref="A1:B5505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55057,6 +55057,14 @@
       </c>
       <c r="B5504" t="inlineStr"/>
     </row>
+    <row r="5505">
+      <c r="A5505" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5505" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5505"/>
+  <dimension ref="A1:B5506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55065,6 +55065,14 @@
       </c>
       <c r="B5505" t="inlineStr"/>
     </row>
+    <row r="5506">
+      <c r="A5506" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5506" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5506"/>
+  <dimension ref="A1:B5507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55073,6 +55073,16 @@
       </c>
       <c r="B5506" t="inlineStr"/>
     </row>
+    <row r="5507">
+      <c r="A5507" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5507" t="n">
+        <v>1.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5507"/>
+  <dimension ref="A1:B5508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55083,6 +55083,14 @@
         <v>1.842</v>
       </c>
     </row>
+    <row r="5508">
+      <c r="A5508" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B5508" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5508"/>
+  <dimension ref="A1:B5509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55091,6 +55091,14 @@
       </c>
       <c r="B5508" t="inlineStr"/>
     </row>
+    <row r="5509">
+      <c r="A5509" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B5509" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5509"/>
+  <dimension ref="A1:B5510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55099,6 +55099,16 @@
       </c>
       <c r="B5509" t="inlineStr"/>
     </row>
+    <row r="5510">
+      <c r="A5510" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5510" t="n">
+        <v>1.787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5510"/>
+  <dimension ref="A1:B5511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55109,6 +55109,16 @@
         <v>1.787</v>
       </c>
     </row>
+    <row r="5511">
+      <c r="A5511" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B5511" t="n">
+        <v>1.505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5511"/>
+  <dimension ref="A1:B5512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55119,6 +55119,14 @@
         <v>1.505</v>
       </c>
     </row>
+    <row r="5512">
+      <c r="A5512" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B5512" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5512"/>
+  <dimension ref="A1:B5513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55127,6 +55127,14 @@
       </c>
       <c r="B5512" t="inlineStr"/>
     </row>
+    <row r="5513">
+      <c r="A5513" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B5513" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5513"/>
+  <dimension ref="A1:B5514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55135,6 +55135,14 @@
       </c>
       <c r="B5513" t="inlineStr"/>
     </row>
+    <row r="5514">
+      <c r="A5514" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B5514" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5514"/>
+  <dimension ref="A1:B5515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55143,6 +55143,14 @@
       </c>
       <c r="B5514" t="inlineStr"/>
     </row>
+    <row r="5515">
+      <c r="A5515" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B5515" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5515"/>
+  <dimension ref="A1:B5516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54522,7 +54522,7 @@
         </is>
       </c>
       <c r="B5448" t="n">
-        <v>1.344</v>
+        <v>1.694</v>
       </c>
     </row>
     <row r="5449">
@@ -54532,7 +54532,7 @@
         </is>
       </c>
       <c r="B5449" t="n">
-        <v>1.565</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="5450">
@@ -54542,7 +54542,7 @@
         </is>
       </c>
       <c r="B5450" t="n">
-        <v>1.934</v>
+        <v>2.666</v>
       </c>
     </row>
     <row r="5451">
@@ -54552,7 +54552,7 @@
         </is>
       </c>
       <c r="B5451" t="n">
-        <v>3.514</v>
+        <v>2.452</v>
       </c>
     </row>
     <row r="5452">
@@ -54562,7 +54562,7 @@
         </is>
       </c>
       <c r="B5452" t="n">
-        <v>2.251</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="5453">
@@ -54572,7 +54572,7 @@
         </is>
       </c>
       <c r="B5453" t="n">
-        <v>1.974</v>
+        <v>2.313</v>
       </c>
     </row>
     <row r="5454">
@@ -54582,7 +54582,7 @@
         </is>
       </c>
       <c r="B5454" t="n">
-        <v>2.425</v>
+        <v>2.775</v>
       </c>
     </row>
     <row r="5455">
@@ -54592,7 +54592,7 @@
         </is>
       </c>
       <c r="B5455" t="n">
-        <v>3.254</v>
+        <v>2.551</v>
       </c>
     </row>
     <row r="5456">
@@ -54602,7 +54602,7 @@
         </is>
       </c>
       <c r="B5456" t="n">
-        <v>2.338</v>
+        <v>2.628</v>
       </c>
     </row>
     <row r="5457">
@@ -54612,7 +54612,7 @@
         </is>
       </c>
       <c r="B5457" t="n">
-        <v>2.703</v>
+        <v>2.366</v>
       </c>
     </row>
     <row r="5458">
@@ -54622,7 +54622,7 @@
         </is>
       </c>
       <c r="B5458" t="n">
-        <v>2.106</v>
+        <v>2.226</v>
       </c>
     </row>
     <row r="5459">
@@ -54632,7 +54632,7 @@
         </is>
       </c>
       <c r="B5459" t="n">
-        <v>2.093</v>
+        <v>2.605</v>
       </c>
     </row>
     <row r="5460">
@@ -54642,7 +54642,7 @@
         </is>
       </c>
       <c r="B5460" t="n">
-        <v>2.999</v>
+        <v>2.448</v>
       </c>
     </row>
     <row r="5461">
@@ -54652,7 +54652,7 @@
         </is>
       </c>
       <c r="B5461" t="n">
-        <v>2.278</v>
+        <v>2.876</v>
       </c>
     </row>
     <row r="5462">
@@ -54662,7 +54662,7 @@
         </is>
       </c>
       <c r="B5462" t="n">
-        <v>3.3</v>
+        <v>2.352</v>
       </c>
     </row>
     <row r="5463">
@@ -54672,7 +54672,7 @@
         </is>
       </c>
       <c r="B5463" t="n">
-        <v>2.41</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="5464">
@@ -54682,7 +54682,7 @@
         </is>
       </c>
       <c r="B5464" t="n">
-        <v>1.908</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="5465">
@@ -54692,7 +54692,7 @@
         </is>
       </c>
       <c r="B5465" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5466">
@@ -54702,7 +54702,7 @@
         </is>
       </c>
       <c r="B5466" t="n">
-        <v>2.936</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="5467">
@@ -54712,7 +54712,7 @@
         </is>
       </c>
       <c r="B5467" t="n">
-        <v>1.785</v>
+        <v>2.358</v>
       </c>
     </row>
     <row r="5468">
@@ -54722,7 +54722,7 @@
         </is>
       </c>
       <c r="B5468" t="n">
-        <v>2.586</v>
+        <v>2.056</v>
       </c>
     </row>
     <row r="5469">
@@ -54732,7 +54732,7 @@
         </is>
       </c>
       <c r="B5469" t="n">
-        <v>1.751</v>
+        <v>2.042</v>
       </c>
     </row>
     <row r="5470">
@@ -54742,7 +54742,7 @@
         </is>
       </c>
       <c r="B5470" t="n">
-        <v>2.03</v>
+        <v>1.895</v>
       </c>
     </row>
     <row r="5471">
@@ -54752,7 +54752,7 @@
         </is>
       </c>
       <c r="B5471" t="n">
-        <v>1.749</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5472">
@@ -54762,7 +54762,7 @@
         </is>
       </c>
       <c r="B5472" t="n">
-        <v>1.884</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="5473">
@@ -54772,7 +54772,7 @@
         </is>
       </c>
       <c r="B5473" t="n">
-        <v>1.777</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5474">
@@ -54782,7 +54782,7 @@
         </is>
       </c>
       <c r="B5474" t="n">
-        <v>2.025</v>
+        <v>1.701</v>
       </c>
     </row>
     <row r="5475">
@@ -54792,7 +54792,7 @@
         </is>
       </c>
       <c r="B5475" t="n">
-        <v>1.453</v>
+        <v>1.624</v>
       </c>
     </row>
     <row r="5476">
@@ -54802,7 +54802,7 @@
         </is>
       </c>
       <c r="B5476" t="n">
-        <v>1.65</v>
+        <v>1.691</v>
       </c>
     </row>
     <row r="5477">
@@ -54812,7 +54812,7 @@
         </is>
       </c>
       <c r="B5477" t="n">
-        <v>1.766</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="5478">
@@ -54822,7 +54822,7 @@
         </is>
       </c>
       <c r="B5478" t="n">
-        <v>1.347</v>
+        <v>3.086</v>
       </c>
     </row>
     <row r="5479">
@@ -54832,7 +54832,7 @@
         </is>
       </c>
       <c r="B5479" t="n">
-        <v>4.664</v>
+        <v>2.643</v>
       </c>
     </row>
     <row r="5480">
@@ -54842,7 +54842,7 @@
         </is>
       </c>
       <c r="B5480" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5481">
@@ -54852,7 +54852,7 @@
         </is>
       </c>
       <c r="B5481" t="n">
-        <v>1.814</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5482">
@@ -54862,7 +54862,7 @@
         </is>
       </c>
       <c r="B5482" t="n">
-        <v>1.725</v>
+        <v>1.768</v>
       </c>
     </row>
     <row r="5483">
@@ -54872,7 +54872,7 @@
         </is>
       </c>
       <c r="B5483" t="n">
-        <v>1.566</v>
+        <v>1.639</v>
       </c>
     </row>
     <row r="5484">
@@ -54882,7 +54882,7 @@
         </is>
       </c>
       <c r="B5484" t="n">
-        <v>1.519</v>
+        <v>1.538</v>
       </c>
     </row>
     <row r="5485">
@@ -54892,7 +54892,7 @@
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>1.443</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="5486">
@@ -54902,7 +54902,7 @@
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>1.403</v>
+        <v>2.041</v>
       </c>
     </row>
     <row r="5487">
@@ -54912,7 +54912,7 @@
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>2.628</v>
+        <v>2.199</v>
       </c>
     </row>
     <row r="5488">
@@ -54922,7 +54922,7 @@
         </is>
       </c>
       <c r="B5488" t="n">
-        <v>2.391</v>
+        <v>1.765</v>
       </c>
     </row>
     <row r="5489">
@@ -54932,7 +54932,7 @@
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>1.333</v>
+        <v>1.595</v>
       </c>
     </row>
     <row r="5490">
@@ -54942,7 +54942,7 @@
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>1.438</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5491">
@@ -54951,7 +54951,9 @@
           <t>2025-08-29</t>
         </is>
       </c>
-      <c r="B5491" t="inlineStr"/>
+      <c r="B5491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
@@ -54959,7 +54961,9 @@
           <t>2025-08-30</t>
         </is>
       </c>
-      <c r="B5492" t="inlineStr"/>
+      <c r="B5492" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
@@ -54967,7 +54971,9 @@
           <t>2025-08-31</t>
         </is>
       </c>
-      <c r="B5493" t="inlineStr"/>
+      <c r="B5493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
@@ -54975,7 +54981,9 @@
           <t>2025-09-01</t>
         </is>
       </c>
-      <c r="B5494" t="inlineStr"/>
+      <c r="B5494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
@@ -54983,7 +54991,9 @@
           <t>2025-09-02</t>
         </is>
       </c>
-      <c r="B5495" t="inlineStr"/>
+      <c r="B5495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
@@ -54991,7 +55001,9 @@
           <t>2025-09-03</t>
         </is>
       </c>
-      <c r="B5496" t="inlineStr"/>
+      <c r="B5496" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
@@ -54999,7 +55011,9 @@
           <t>2025-09-04</t>
         </is>
       </c>
-      <c r="B5497" t="inlineStr"/>
+      <c r="B5497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
@@ -55007,7 +55021,9 @@
           <t>2025-09-05</t>
         </is>
       </c>
-      <c r="B5498" t="inlineStr"/>
+      <c r="B5498" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
@@ -55015,7 +55031,9 @@
           <t>2025-09-06</t>
         </is>
       </c>
-      <c r="B5499" t="inlineStr"/>
+      <c r="B5499" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
@@ -55023,7 +55041,9 @@
           <t>2025-09-07</t>
         </is>
       </c>
-      <c r="B5500" t="inlineStr"/>
+      <c r="B5500" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
@@ -55031,7 +55051,9 @@
           <t>2025-09-08</t>
         </is>
       </c>
-      <c r="B5501" t="inlineStr"/>
+      <c r="B5501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
@@ -55039,7 +55061,9 @@
           <t>2025-09-09</t>
         </is>
       </c>
-      <c r="B5502" t="inlineStr"/>
+      <c r="B5502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
@@ -55047,7 +55071,9 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="B5503" t="inlineStr"/>
+      <c r="B5503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
@@ -55055,7 +55081,9 @@
           <t>2025-09-11</t>
         </is>
       </c>
-      <c r="B5504" t="inlineStr"/>
+      <c r="B5504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
@@ -55063,7 +55091,9 @@
           <t>2025-09-12</t>
         </is>
       </c>
-      <c r="B5505" t="inlineStr"/>
+      <c r="B5505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
@@ -55071,7 +55101,9 @@
           <t>2025-09-13</t>
         </is>
       </c>
-      <c r="B5506" t="inlineStr"/>
+      <c r="B5506" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
@@ -55080,7 +55112,7 @@
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>1.842</v>
+        <v>2.142</v>
       </c>
     </row>
     <row r="5508">
@@ -55089,7 +55121,9 @@
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="B5508" t="inlineStr"/>
+      <c r="B5508" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
@@ -55097,7 +55131,9 @@
           <t>2025-09-16</t>
         </is>
       </c>
-      <c r="B5509" t="inlineStr"/>
+      <c r="B5509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
@@ -55106,7 +55142,7 @@
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1.787</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5511">
@@ -55116,7 +55152,7 @@
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1.505</v>
+        <v>1.823</v>
       </c>
     </row>
     <row r="5512">
@@ -55125,7 +55161,9 @@
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="B5512" t="inlineStr"/>
+      <c r="B5512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
@@ -55133,7 +55171,9 @@
           <t>2025-09-20</t>
         </is>
       </c>
-      <c r="B5513" t="inlineStr"/>
+      <c r="B5513" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
@@ -55141,7 +55181,9 @@
           <t>2025-09-21</t>
         </is>
       </c>
-      <c r="B5514" t="inlineStr"/>
+      <c r="B5514" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
@@ -55149,7 +55191,17 @@
           <t>2025-09-22</t>
         </is>
       </c>
-      <c r="B5515" t="inlineStr"/>
+      <c r="B5515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5516">
+      <c r="A5516" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B5516" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5516"/>
+  <dimension ref="A1:B5517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54232,7 +54232,7 @@
         </is>
       </c>
       <c r="B5419" t="n">
-        <v>1.953</v>
+        <v>1.831</v>
       </c>
     </row>
     <row r="5420">
@@ -54242,7 +54242,7 @@
         </is>
       </c>
       <c r="B5420" t="n">
-        <v>1.644</v>
+        <v>1.926</v>
       </c>
     </row>
     <row r="5421">
@@ -54252,7 +54252,7 @@
         </is>
       </c>
       <c r="B5421" t="n">
-        <v>2.048</v>
+        <v>1.979</v>
       </c>
     </row>
     <row r="5422">
@@ -54262,7 +54262,7 @@
         </is>
       </c>
       <c r="B5422" t="n">
-        <v>2.042</v>
+        <v>1.973</v>
       </c>
     </row>
     <row r="5423">
@@ -54272,7 +54272,7 @@
         </is>
       </c>
       <c r="B5423" t="n">
-        <v>1.967</v>
+        <v>2.204</v>
       </c>
     </row>
     <row r="5424">
@@ -54282,7 +54282,7 @@
         </is>
       </c>
       <c r="B5424" t="n">
-        <v>2.444</v>
+        <v>2.022</v>
       </c>
     </row>
     <row r="5425">
@@ -54292,7 +54292,7 @@
         </is>
       </c>
       <c r="B5425" t="n">
-        <v>1.818</v>
+        <v>2.038</v>
       </c>
     </row>
     <row r="5426">
@@ -54302,7 +54302,7 @@
         </is>
       </c>
       <c r="B5426" t="n">
-        <v>2.079</v>
+        <v>1.974</v>
       </c>
     </row>
     <row r="5427">
@@ -54312,7 +54312,7 @@
         </is>
       </c>
       <c r="B5427" t="n">
-        <v>1.912</v>
+        <v>2.429</v>
       </c>
     </row>
     <row r="5428">
@@ -54322,7 +54322,7 @@
         </is>
       </c>
       <c r="B5428" t="n">
-        <v>2.893</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5429">
@@ -54332,7 +54332,7 @@
         </is>
       </c>
       <c r="B5429" t="n">
-        <v>2.383</v>
+        <v>2.041</v>
       </c>
     </row>
     <row r="5430">
@@ -54342,7 +54342,7 @@
         </is>
       </c>
       <c r="B5430" t="n">
-        <v>1.671</v>
+        <v>2.115</v>
       </c>
     </row>
     <row r="5431">
@@ -54352,7 +54352,7 @@
         </is>
       </c>
       <c r="B5431" t="n">
-        <v>2.194</v>
+        <v>2.465</v>
       </c>
     </row>
     <row r="5432">
@@ -54362,7 +54362,7 @@
         </is>
       </c>
       <c r="B5432" t="n">
-        <v>2.841</v>
+        <v>2.761</v>
       </c>
     </row>
     <row r="5433">
@@ -54372,7 +54372,7 @@
         </is>
       </c>
       <c r="B5433" t="n">
-        <v>3.064</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="5434">
@@ -54382,7 +54382,7 @@
         </is>
       </c>
       <c r="B5434" t="n">
-        <v>2.127</v>
+        <v>2.416</v>
       </c>
     </row>
     <row r="5435">
@@ -54392,7 +54392,7 @@
         </is>
       </c>
       <c r="B5435" t="n">
-        <v>2.366</v>
+        <v>13.431</v>
       </c>
     </row>
     <row r="5436">
@@ -54402,7 +54402,7 @@
         </is>
       </c>
       <c r="B5436" t="n">
-        <v>24.616</v>
+        <v>7.802</v>
       </c>
     </row>
     <row r="5437">
@@ -54412,7 +54412,7 @@
         </is>
       </c>
       <c r="B5437" t="n">
-        <v>2.171</v>
+        <v>4.836</v>
       </c>
     </row>
     <row r="5438">
@@ -54422,7 +54422,7 @@
         </is>
       </c>
       <c r="B5438" t="n">
-        <v>1.864</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="5439">
@@ -54432,7 +54432,7 @@
         </is>
       </c>
       <c r="B5439" t="n">
-        <v>2.528</v>
+        <v>3.149</v>
       </c>
     </row>
     <row r="5440">
@@ -54442,7 +54442,7 @@
         </is>
       </c>
       <c r="B5440" t="n">
-        <v>2.622</v>
+        <v>3.531</v>
       </c>
     </row>
     <row r="5441">
@@ -54452,7 +54452,7 @@
         </is>
       </c>
       <c r="B5441" t="n">
-        <v>3.91</v>
+        <v>2.747</v>
       </c>
     </row>
     <row r="5442">
@@ -54462,7 +54462,7 @@
         </is>
       </c>
       <c r="B5442" t="n">
-        <v>1.955</v>
+        <v>2.321</v>
       </c>
     </row>
     <row r="5443">
@@ -54472,7 +54472,7 @@
         </is>
       </c>
       <c r="B5443" t="n">
-        <v>1.901</v>
+        <v>2.788</v>
       </c>
     </row>
     <row r="5444">
@@ -54482,7 +54482,7 @@
         </is>
       </c>
       <c r="B5444" t="n">
-        <v>3.273</v>
+        <v>2.456</v>
       </c>
     </row>
     <row r="5445">
@@ -54492,7 +54492,7 @@
         </is>
       </c>
       <c r="B5445" t="n">
-        <v>2.123</v>
+        <v>2.266</v>
       </c>
     </row>
     <row r="5446">
@@ -54502,7 +54502,7 @@
         </is>
       </c>
       <c r="B5446" t="n">
-        <v>2.074</v>
+        <v>2.249</v>
       </c>
     </row>
     <row r="5447">
@@ -54512,7 +54512,7 @@
         </is>
       </c>
       <c r="B5447" t="n">
-        <v>2.252</v>
+        <v>1.797</v>
       </c>
     </row>
     <row r="5448">
@@ -54952,7 +54952,7 @@
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>1</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5492">
@@ -54962,7 +54962,7 @@
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>1</v>
+        <v>2.099</v>
       </c>
     </row>
     <row r="5493">
@@ -54972,7 +54972,7 @@
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>1</v>
+        <v>1.943</v>
       </c>
     </row>
     <row r="5494">
@@ -54982,7 +54982,7 @@
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>1</v>
+        <v>1.938</v>
       </c>
     </row>
     <row r="5495">
@@ -54992,7 +54992,7 @@
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>1</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="5496">
@@ -55002,7 +55002,7 @@
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>1</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="5497">
@@ -55012,7 +55012,7 @@
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1</v>
+        <v>1.653</v>
       </c>
     </row>
     <row r="5498">
@@ -55022,7 +55022,7 @@
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>1</v>
+        <v>1.477</v>
       </c>
     </row>
     <row r="5499">
@@ -55032,7 +55032,7 @@
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>1</v>
+        <v>1.722</v>
       </c>
     </row>
     <row r="5500">
@@ -55042,7 +55042,7 @@
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>1</v>
+        <v>1.774</v>
       </c>
     </row>
     <row r="5501">
@@ -55052,7 +55052,7 @@
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>1</v>
+        <v>1.608</v>
       </c>
     </row>
     <row r="5502">
@@ -55062,7 +55062,7 @@
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>1</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5503">
@@ -55072,7 +55072,7 @@
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="5504">
@@ -55082,7 +55082,7 @@
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>1</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="5505">
@@ -55092,7 +55092,7 @@
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>1</v>
+        <v>1.459</v>
       </c>
     </row>
     <row r="5506">
@@ -55102,7 +55102,7 @@
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>1</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="5507">
@@ -55122,7 +55122,7 @@
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>1</v>
+        <v>1.805</v>
       </c>
     </row>
     <row r="5509">
@@ -55132,7 +55132,7 @@
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>1</v>
+        <v>1.792</v>
       </c>
     </row>
     <row r="5510">
@@ -55162,7 +55162,7 @@
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>1</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="5513">
@@ -55172,7 +55172,7 @@
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>1</v>
+        <v>1.958</v>
       </c>
     </row>
     <row r="5514">
@@ -55182,7 +55182,7 @@
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>1</v>
+        <v>2.062</v>
       </c>
     </row>
     <row r="5515">
@@ -55192,7 +55192,7 @@
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>1</v>
+        <v>1.885</v>
       </c>
     </row>
     <row r="5516">
@@ -55201,7 +55201,17 @@
           <t>2025-09-23</t>
         </is>
       </c>
-      <c r="B5516" t="inlineStr"/>
+      <c r="B5516" t="n">
+        <v>1.796</v>
+      </c>
+    </row>
+    <row r="5517">
+      <c r="A5517" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B5517" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5517"/>
+  <dimension ref="A1:B5518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55211,7 +55211,17 @@
           <t>2025-09-24</t>
         </is>
       </c>
-      <c r="B5517" t="inlineStr"/>
+      <c r="B5517" t="n">
+        <v>1.685</v>
+      </c>
+    </row>
+    <row r="5518">
+      <c r="A5518" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B5518" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5518"/>
+  <dimension ref="A1:B5519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55221,7 +55221,17 @@
           <t>2025-09-25</t>
         </is>
       </c>
-      <c r="B5518" t="inlineStr"/>
+      <c r="B5518" t="n">
+        <v>1.556</v>
+      </c>
+    </row>
+    <row r="5519">
+      <c r="A5519" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B5519" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5519"/>
+  <dimension ref="A1:B5520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55231,7 +55231,17 @@
           <t>2025-09-26</t>
         </is>
       </c>
-      <c r="B5519" t="inlineStr"/>
+      <c r="B5519" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="5520">
+      <c r="A5520" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B5520" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5520"/>
+  <dimension ref="A1:B5521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55241,7 +55241,17 @@
           <t>2025-09-27</t>
         </is>
       </c>
-      <c r="B5520" t="inlineStr"/>
+      <c r="B5520" t="n">
+        <v>1.591</v>
+      </c>
+    </row>
+    <row r="5521">
+      <c r="A5521" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B5521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5521"/>
+  <dimension ref="A1:B5522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55251,7 +55251,17 @@
           <t>2025-09-28</t>
         </is>
       </c>
-      <c r="B5521" t="inlineStr"/>
+      <c r="B5521" t="n">
+        <v>1.748</v>
+      </c>
+    </row>
+    <row r="5522">
+      <c r="A5522" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B5522" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5522"/>
+  <dimension ref="A1:B5523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55261,7 +55261,17 @@
           <t>2025-09-29</t>
         </is>
       </c>
-      <c r="B5522" t="inlineStr"/>
+      <c r="B5522" t="n">
+        <v>1.874</v>
+      </c>
+    </row>
+    <row r="5523">
+      <c r="A5523" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5523" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5523"/>
+  <dimension ref="A1:B5524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55271,7 +55271,17 @@
           <t>2025-09-30</t>
         </is>
       </c>
-      <c r="B5523" t="inlineStr"/>
+      <c r="B5523" t="n">
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="5524">
+      <c r="A5524" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B5524" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5524"/>
+  <dimension ref="A1:B5525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55281,7 +55281,19 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="B5524" t="inlineStr"/>
+      <c r="B5524" t="n">
+        <v>1.839</v>
+      </c>
+    </row>
+    <row r="5525">
+      <c r="A5525" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B5525" t="n">
+        <v>1.476</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5525"/>
+  <dimension ref="A1:B5526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55295,6 +55295,14 @@
         <v>1.476</v>
       </c>
     </row>
+    <row r="5526">
+      <c r="A5526" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B5526" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5526"/>
+  <dimension ref="A1:B5527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55301,7 +55301,17 @@
           <t>2025-10-03</t>
         </is>
       </c>
-      <c r="B5526" t="inlineStr"/>
+      <c r="B5526" t="n">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="5527">
+      <c r="A5527" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5527"/>
+  <dimension ref="A1:B5528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55311,7 +55311,17 @@
           <t>2025-10-04</t>
         </is>
       </c>
-      <c r="B5527" t="inlineStr"/>
+      <c r="B5527" t="n">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="5528">
+      <c r="A5528" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5528" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5528"/>
+  <dimension ref="A1:B5529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55321,7 +55321,17 @@
           <t>2025-10-05</t>
         </is>
       </c>
-      <c r="B5528" t="inlineStr"/>
+      <c r="B5528" t="n">
+        <v>2.164</v>
+      </c>
+    </row>
+    <row r="5529">
+      <c r="A5529" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5529" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5529"/>
+  <dimension ref="A1:B5531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54948,390 +54948,408 @@
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-      <c r="B5491" t="n">
-        <v>1.48</v>
-      </c>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B5491" t="inlineStr"/>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>2.099</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>1.943</v>
+        <v>2.099</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>1.938</v>
+        <v>1.943</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>1.657</v>
+        <v>1.938</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>1.655</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1.653</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>1.477</v>
+        <v>1.653</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>1.722</v>
+        <v>1.477</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>1.774</v>
+        <v>1.722</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>1.608</v>
+        <v>1.774</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>1.49</v>
+        <v>1.608</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1.488</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>1.434</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>1.459</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>1.645</v>
+        <v>1.459</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>2.142</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>1.805</v>
+        <v>2.142</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>1.792</v>
+        <v>1.805</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1.62</v>
+        <v>1.792</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1.823</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>1.593</v>
+        <v>1.823</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>1.958</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>2.062</v>
+        <v>1.958</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>1.885</v>
+        <v>2.062</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>1.796</v>
+        <v>1.885</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>1.685</v>
+        <v>1.796</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>1.556</v>
+        <v>1.685</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>1.492</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>1.591</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>1.748</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>1.874</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>1.851</v>
+        <v>1.874</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>1.839</v>
+        <v>1.851</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>1.476</v>
+        <v>1.839</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>1.464</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>1.905</v>
+        <v>1.464</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B5528" t="n">
-        <v>2.164</v>
+        <v>1.905</v>
       </c>
     </row>
     <row r="5529">
       <c r="A5529" t="inlineStr">
         <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5529" t="n">
+        <v>2.164</v>
+      </c>
+    </row>
+    <row r="5530">
+      <c r="A5530" t="inlineStr">
+        <is>
           <t>2025-10-06</t>
         </is>
       </c>
-      <c r="B5529" t="inlineStr"/>
+      <c r="B5530" t="inlineStr"/>
+    </row>
+    <row r="5531">
+      <c r="A5531" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B5531" t="n">
+        <v>2.307</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5531"/>
+  <dimension ref="A1:B5533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55351,6 +55351,26 @@
         <v>2.307</v>
       </c>
     </row>
+    <row r="5532">
+      <c r="A5532" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B5532" t="n">
+        <v>1.901</v>
+      </c>
+    </row>
+    <row r="5533">
+      <c r="A5533" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B5533" t="n">
+        <v>2.079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5533"/>
+  <dimension ref="A1:B5534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55371,6 +55371,16 @@
         <v>2.079</v>
       </c>
     </row>
+    <row r="5534">
+      <c r="A5534" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B5534" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5534"/>
+  <dimension ref="A1:B5535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55381,6 +55381,16 @@
         <v>1.55</v>
       </c>
     </row>
+    <row r="5535">
+      <c r="A5535" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B5535" t="n">
+        <v>1.437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5535"/>
+  <dimension ref="A1:B5536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55391,6 +55391,16 @@
         <v>1.437</v>
       </c>
     </row>
+    <row r="5536">
+      <c r="A5536" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B5536" t="n">
+        <v>2.078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5536"/>
+  <dimension ref="A1:B5537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55401,6 +55401,16 @@
         <v>2.078</v>
       </c>
     </row>
+    <row r="5537">
+      <c r="A5537" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B5537" t="n">
+        <v>1.748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5537"/>
+  <dimension ref="A1:B5538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55411,6 +55411,16 @@
         <v>1.748</v>
       </c>
     </row>
+    <row r="5538">
+      <c r="A5538" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B5538" t="n">
+        <v>1.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5538"/>
+  <dimension ref="A1:B5539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55421,6 +55421,16 @@
         <v>1.575</v>
       </c>
     </row>
+    <row r="5539">
+      <c r="A5539" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B5539" t="n">
+        <v>2.335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5539"/>
+  <dimension ref="A1:B5540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55431,6 +55431,16 @@
         <v>2.335</v>
       </c>
     </row>
+    <row r="5540">
+      <c r="A5540" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B5540" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5540"/>
+  <dimension ref="A1:B5541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55441,6 +55441,16 @@
         <v>1.38</v>
       </c>
     </row>
+    <row r="5541">
+      <c r="A5541" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B5541" t="n">
+        <v>1.593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5541"/>
+  <dimension ref="A1:B5542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55451,6 +55451,16 @@
         <v>1.593</v>
       </c>
     </row>
+    <row r="5542">
+      <c r="A5542" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B5542" t="n">
+        <v>1.283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5542"/>
+  <dimension ref="A1:B5543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55461,6 +55461,16 @@
         <v>1.283</v>
       </c>
     </row>
+    <row r="5543">
+      <c r="A5543" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B5543" t="n">
+        <v>1.994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5543"/>
+  <dimension ref="A1:B5545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55471,6 +55471,26 @@
         <v>1.994</v>
       </c>
     </row>
+    <row r="5544">
+      <c r="A5544" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5544" t="n">
+        <v>1.765</v>
+      </c>
+    </row>
+    <row r="5545">
+      <c r="A5545" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5545" t="n">
+        <v>1.515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5545"/>
+  <dimension ref="A1:B5546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55491,6 +55491,16 @@
         <v>1.515</v>
       </c>
     </row>
+    <row r="5546">
+      <c r="A5546" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B5546" t="n">
+        <v>2.132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5546"/>
+  <dimension ref="A1:B5548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55501,6 +55501,26 @@
         <v>2.132</v>
       </c>
     </row>
+    <row r="5547">
+      <c r="A5547" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B5547" t="n">
+        <v>1.596</v>
+      </c>
+    </row>
+    <row r="5548">
+      <c r="A5548" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B5548" t="n">
+        <v>1.505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5548"/>
+  <dimension ref="A1:B5549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55521,6 +55521,16 @@
         <v>1.505</v>
       </c>
     </row>
+    <row r="5549">
+      <c r="A5549" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B5549" t="n">
+        <v>1.335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5549"/>
+  <dimension ref="A1:B5551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55531,6 +55531,26 @@
         <v>1.335</v>
       </c>
     </row>
+    <row r="5550">
+      <c r="A5550" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5550" t="n">
+        <v>2.439</v>
+      </c>
+    </row>
+    <row r="5551">
+      <c r="A5551" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5551" t="n">
+        <v>2.347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5551"/>
+  <dimension ref="A1:B5553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55551,6 +55551,26 @@
         <v>2.347</v>
       </c>
     </row>
+    <row r="5552">
+      <c r="A5552" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5552" t="n">
+        <v>1.757</v>
+      </c>
+    </row>
+    <row r="5553">
+      <c r="A5553" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5553" t="n">
+        <v>1.567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5553"/>
+  <dimension ref="A1:B5554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55571,6 +55571,16 @@
         <v>1.567</v>
       </c>
     </row>
+    <row r="5554">
+      <c r="A5554" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B5554" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5554"/>
+  <dimension ref="A1:B5555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55581,6 +55581,16 @@
         <v>1.482</v>
       </c>
     </row>
+    <row r="5555">
+      <c r="A5555" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B5555" t="n">
+        <v>1.406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5555"/>
+  <dimension ref="A1:B5556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55591,6 +55591,16 @@
         <v>1.406</v>
       </c>
     </row>
+    <row r="5556">
+      <c r="A5556" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B5556" t="n">
+        <v>1.739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5556"/>
+  <dimension ref="A1:B5557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55601,6 +55601,16 @@
         <v>1.739</v>
       </c>
     </row>
+    <row r="5557">
+      <c r="A5557" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B5557" t="n">
+        <v>1.854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5557"/>
+  <dimension ref="A1:B5558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55611,6 +55611,16 @@
         <v>1.854</v>
       </c>
     </row>
+    <row r="5558">
+      <c r="A5558" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B5558" t="n">
+        <v>2.213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5558"/>
+  <dimension ref="A1:B5559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55621,6 +55621,16 @@
         <v>2.213</v>
       </c>
     </row>
+    <row r="5559">
+      <c r="A5559" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B5559" t="n">
+        <v>1.292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5559"/>
+  <dimension ref="A1:B5561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55631,6 +55631,26 @@
         <v>1.292</v>
       </c>
     </row>
+    <row r="5560">
+      <c r="A5560" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5560" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="5561">
+      <c r="A5561" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B5561" t="n">
+        <v>1.218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5561"/>
+  <dimension ref="A1:B5585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55651,6 +55651,246 @@
         <v>1.218</v>
       </c>
     </row>
+    <row r="5562">
+      <c r="A5562" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B5562" t="n">
+        <v>1.952</v>
+      </c>
+    </row>
+    <row r="5563">
+      <c r="A5563" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B5563" t="n">
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="5564">
+      <c r="A5564" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B5564" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5565">
+      <c r="A5565" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5565" t="n">
+        <v>1.355</v>
+      </c>
+    </row>
+    <row r="5566">
+      <c r="A5566" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B5566" t="n">
+        <v>1.279</v>
+      </c>
+    </row>
+    <row r="5567">
+      <c r="A5567" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B5567" t="n">
+        <v>1.346</v>
+      </c>
+    </row>
+    <row r="5568">
+      <c r="A5568" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B5568" t="n">
+        <v>1.368</v>
+      </c>
+    </row>
+    <row r="5569">
+      <c r="A5569" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5569" t="n">
+        <v>1.201</v>
+      </c>
+    </row>
+    <row r="5570">
+      <c r="A5570" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B5570" t="n">
+        <v>1.442</v>
+      </c>
+    </row>
+    <row r="5571">
+      <c r="A5571" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B5571" t="n">
+        <v>1.668</v>
+      </c>
+    </row>
+    <row r="5572">
+      <c r="A5572" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B5572" t="n">
+        <v>1.382</v>
+      </c>
+    </row>
+    <row r="5573">
+      <c r="A5573" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B5573" t="n">
+        <v>1.336</v>
+      </c>
+    </row>
+    <row r="5574">
+      <c r="A5574" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B5574" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="5575">
+      <c r="A5575" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B5575" t="n">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="5576">
+      <c r="A5576" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B5576" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="5577">
+      <c r="A5577" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B5577" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="5578">
+      <c r="A5578" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B5578" t="n">
+        <v>1.924</v>
+      </c>
+    </row>
+    <row r="5579">
+      <c r="A5579" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B5579" t="n">
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="5580">
+      <c r="A5580" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B5580" t="n">
+        <v>2.587</v>
+      </c>
+    </row>
+    <row r="5581">
+      <c r="A5581" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B5581" t="n">
+        <v>1.394</v>
+      </c>
+    </row>
+    <row r="5582">
+      <c r="A5582" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B5582" t="n">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="5583">
+      <c r="A5583" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B5583" t="n">
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="5584">
+      <c r="A5584" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B5584" t="n">
+        <v>1.327</v>
+      </c>
+    </row>
+    <row r="5585">
+      <c r="A5585" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5585" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5585"/>
+  <dimension ref="A1:B5587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55891,6 +55891,26 @@
         <v>1.269</v>
       </c>
     </row>
+    <row r="5586">
+      <c r="A5586" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B5586" t="n">
+        <v>1.348</v>
+      </c>
+    </row>
+    <row r="5587">
+      <c r="A5587" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B5587" t="n">
+        <v>1.237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5587"/>
+  <dimension ref="A1:B5588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55911,6 +55911,16 @@
         <v>1.237</v>
       </c>
     </row>
+    <row r="5588">
+      <c r="A5588" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B5588" t="n">
+        <v>1.216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5588"/>
+  <dimension ref="A1:B5590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55921,6 +55921,26 @@
         <v>1.216</v>
       </c>
     </row>
+    <row r="5589">
+      <c r="A5589" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B5589" t="n">
+        <v>1.214</v>
+      </c>
+    </row>
+    <row r="5590">
+      <c r="A5590" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B5590" t="n">
+        <v>1.904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5590"/>
+  <dimension ref="A1:B5593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55941,6 +55941,36 @@
         <v>1.904</v>
       </c>
     </row>
+    <row r="5591">
+      <c r="A5591" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B5591" t="n">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="5592">
+      <c r="A5592" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B5592" t="n">
+        <v>1.524</v>
+      </c>
+    </row>
+    <row r="5593">
+      <c r="A5593" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B5593" t="n">
+        <v>1.548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5593"/>
+  <dimension ref="A1:B5595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55971,6 +55971,26 @@
         <v>1.548</v>
       </c>
     </row>
+    <row r="5594">
+      <c r="A5594" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5594" t="n">
+        <v>1.413</v>
+      </c>
+    </row>
+    <row r="5595">
+      <c r="A5595" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B5595" t="n">
+        <v>1.398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5595"/>
+  <dimension ref="A1:B5599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55991,6 +55991,46 @@
         <v>1.398</v>
       </c>
     </row>
+    <row r="5596">
+      <c r="A5596" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B5596" t="n">
+        <v>1.267</v>
+      </c>
+    </row>
+    <row r="5597">
+      <c r="A5597" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B5597" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="5598">
+      <c r="A5598" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B5598" t="n">
+        <v>1.142</v>
+      </c>
+    </row>
+    <row r="5599">
+      <c r="A5599" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B5599" t="n">
+        <v>1.116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5599"/>
+  <dimension ref="A1:B5601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56031,6 +56031,26 @@
         <v>1.116</v>
       </c>
     </row>
+    <row r="5600">
+      <c r="A5600" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5600" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="5601">
+      <c r="A5601" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5601" t="n">
+        <v>1.097</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5601"/>
+  <dimension ref="A1:B5602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56051,6 +56051,16 @@
         <v>1.097</v>
       </c>
     </row>
+    <row r="5602">
+      <c r="A5602" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5602" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5602"/>
+  <dimension ref="A1:B5603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56061,6 +56061,16 @@
         <v>0.979</v>
       </c>
     </row>
+    <row r="5603">
+      <c r="A5603" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B5603" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5603"/>
+  <dimension ref="A1:B5606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56071,6 +56071,36 @@
         <v>1.082</v>
       </c>
     </row>
+    <row r="5604">
+      <c r="A5604" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B5604" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5605">
+      <c r="A5605" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B5605" t="n">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row r="5606">
+      <c r="A5606" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B5606" t="n">
+        <v>1.755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5606"/>
+  <dimension ref="A1:B5610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56101,6 +56101,46 @@
         <v>1.755</v>
       </c>
     </row>
+    <row r="5607">
+      <c r="A5607" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B5607" t="n">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="5608">
+      <c r="A5608" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B5608" t="n">
+        <v>1.188</v>
+      </c>
+    </row>
+    <row r="5609">
+      <c r="A5609" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B5609" t="n">
+        <v>1.228</v>
+      </c>
+    </row>
+    <row r="5610">
+      <c r="A5610" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B5610" t="n">
+        <v>1.518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5610"/>
+  <dimension ref="A1:B5613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56141,6 +56141,36 @@
         <v>1.518</v>
       </c>
     </row>
+    <row r="5611">
+      <c r="A5611" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B5611" t="n">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="5612">
+      <c r="A5612" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B5612" t="n">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="5613">
+      <c r="A5613" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B5613" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr_lth.xlsx
+++ b/data_cripto/btc_sopr_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5613"/>
+  <dimension ref="A1:B5617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56171,6 +56171,46 @@
         <v>1.215</v>
       </c>
     </row>
+    <row r="5614">
+      <c r="A5614" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B5614" t="n">
+        <v>1.193</v>
+      </c>
+    </row>
+    <row r="5615">
+      <c r="A5615" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B5615" t="n">
+        <v>1.021</v>
+      </c>
+    </row>
+    <row r="5616">
+      <c r="A5616" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B5616" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="5617">
+      <c r="A5617" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B5617" t="n">
+        <v>1.061</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
